--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_92_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_92_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.2341934455267551, 1.8404353315774575]</t>
+          <t>[1.240390874960967, 1.8342379021432458]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.660094367001875e-13</v>
+        <v>1.376676550535194e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.660094367001875e-13</v>
+        <v>1.376676550535194e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-0.2893158399702314</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1276925404976499, 0.47631737410956143]</t>
+          <t>[0.12782092492080466, 0.47618898968640666]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.001094646630516616</v>
+        <v>0.001086404221879889</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001094646630516616</v>
+        <v>0.001086404221879889</v>
       </c>
       <c r="W2" t="n">
         <v>1.048468468468489</v>
